--- a/template/akm_template.xlsx
+++ b/template/akm_template.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\wsclient-new\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="156" windowWidth="20052" windowHeight="7932"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -134,11 +139,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,8 +283,21 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Book Antiqua"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -799,42 +817,12 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -843,51 +831,88 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="19" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="18" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="21" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="23" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="18" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="19" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="21" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="23" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -936,6 +961,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -982,7 +1015,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1014,9 +1047,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1048,6 +1082,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1223,68 +1258,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="5.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="5.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1293,280 +1328,283 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD21"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="25" style="32" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" style="32" customWidth="1"/>
+    <col min="4" max="6" width="8.88671875" style="32"/>
+    <col min="7" max="7" width="22.44140625" style="32" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A3" s="16">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A4" s="16">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="16">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A6" s="16">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="16">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A8" s="16">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A9" s="16">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="25" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="25" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="25" t="s">
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="25" t="s">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="25" t="s">
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:7" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="25" t="s">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="25" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:7" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="26" t="s">
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="1:7" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="12"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>